--- a/pred_ohlcv/54_23/2019-10-07 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-07 VALOR ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>737</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>727</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -507,10 +507,10 @@
         <v>720</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
         <v>721</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>730</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>726</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>732</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -622,10 +622,10 @@
         <v>732</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -645,10 +645,10 @@
         <v>737</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>740</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>744</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -714,7 +714,7 @@
         <v>747</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -737,7 +737,7 @@
         <v>749</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>752</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1013,7 +1013,7 @@
         <v>738</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1036,7 +1036,7 @@
         <v>746</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1151,7 +1151,7 @@
         <v>745</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>743</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>738</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1220,10 +1220,10 @@
         <v>732</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>744</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>743</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1289,7 +1289,7 @@
         <v>754</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>754</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>754</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>753</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1381,7 +1381,7 @@
         <v>742</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>748</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>746</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>748</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>748</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>748</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         <v>747</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>743</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>747</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -1588,7 +1588,7 @@
         <v>750</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>746</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -1818,10 +1818,10 @@
         <v>744</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1841,10 +1841,10 @@
         <v>741</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2784,7 +2784,7 @@
         <v>708</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>719</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4509,7 +4509,7 @@
         <v>692</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -4539,6 +4539,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>